--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
-    <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
-    <sheet name="Close App- New" sheetId="15" r:id="rId15"/>
+    <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -614,25 +613,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -19,7 +19,7 @@
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
+    <sheet name="Select Order - new" sheetId="13" r:id="rId13"/>
     <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>

--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -19,7 +19,7 @@
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order - new" sheetId="13" r:id="rId13"/>
+    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>

--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -19,7 +19,7 @@
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
+    <sheet name="Select Order-test" sheetId="13" r:id="rId13"/>
     <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>

--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Launch App" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Book Flight" sheetId="4" r:id="rId4"/>
-    <sheet name="Select Flight" sheetId="5" r:id="rId5"/>
+    <sheet name="Select Flight-test" sheetId="5" r:id="rId5"/>
     <sheet name="Order Flight" sheetId="6" r:id="rId6"/>
     <sheet name="Update Order Details" sheetId="7" r:id="rId7"/>
     <sheet name="Delete Order" sheetId="8" r:id="rId8"/>

--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -19,7 +19,7 @@
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order-test" sheetId="13" r:id="rId13"/>
+    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>

--- a/for-tests/FlightGUIBU_move/Default.xlsx
+++ b/for-tests/FlightGUIBU_move/Default.xlsx
@@ -19,7 +19,7 @@
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
+    <sheet name="Select Order-itay" sheetId="13" r:id="rId13"/>
     <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>
